--- a/files/MT-PE-02 Matriz de Partes Interesadas.xlsx
+++ b/files/MT-PE-02 Matriz de Partes Interesadas.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPC Consultores\IEDIGITAL\SG IEDIGITAL\1. ESTRATÉGICOS\PLANEACIÓN ESTRATÉGICA\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B085762B-2B13-49C8-BE86-EC020F0EB1AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C09339-CF73-4CB0-8692-000A76FEF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MT-PE-02" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>MATRIZ DE PARTES INTERESADAS</t>
   </si>
@@ -142,6 +151,75 @@
   </si>
   <si>
     <t>Fecha: 01/06/2021</t>
+  </si>
+  <si>
+    <t>PADRES DE FAMILIA</t>
+  </si>
+  <si>
+    <t>Seguridad de sus hijos</t>
+  </si>
+  <si>
+    <t>Buena formación para sus hijos</t>
+  </si>
+  <si>
+    <t>Atención oportuna</t>
+  </si>
+  <si>
+    <t>Comunicación efectiva con el colegio</t>
+  </si>
+  <si>
+    <t>Reuniones de padres de familia durante el periodo lectivo.                              Horario de atención a padres</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t>Empleo seguro</t>
+  </si>
+  <si>
+    <t>Remuneración adecuada</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
+    <t>Afiliaciones a seguridad social</t>
+  </si>
+  <si>
+    <t>Pago puntual del salario</t>
+  </si>
+  <si>
+    <t>Contrato laboral</t>
+  </si>
+  <si>
+    <t>Afiliaciones</t>
+  </si>
+  <si>
+    <t>Plan de capacitación al personal</t>
+  </si>
+  <si>
+    <t>Comprobantes de nómina</t>
+  </si>
+  <si>
+    <t>Velar por el cumplimiento de la normatividad</t>
+  </si>
+  <si>
+    <t>Favorecer la cobertura en la educación</t>
+  </si>
+  <si>
+    <t>Visitas de Secretaria de Educación</t>
+  </si>
+  <si>
+    <t>GOBIERNO (Ministerio de Educación Nacional, Secretaría de Educación)</t>
+  </si>
+  <si>
+    <t>EXALUMNOS</t>
+  </si>
+  <si>
+    <t>Descuentos en programas educativos de la institución</t>
+  </si>
+  <si>
+    <t>Programa de descuentos a exalumnos</t>
   </si>
 </sst>
 </file>
@@ -190,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,11 +381,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,46 +403,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,293 +814,487 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="67">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="E31:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E22:G25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
@@ -1009,38 +1311,6 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
